--- a/Year4/FYP/reading/reading.xlsx
+++ b/Year4/FYP/reading/reading.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinbouei/Documents/GitHub/undergraduate-XJTLU/FYP/reading/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinbouei/Documents/GitHub/undergraduate-XJTLU/Year4/FYP/reading/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A0DAEA2-EAD0-DF42-8E54-6D628402E1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CEBA99-7641-0D43-BBC9-6A5D09BEF2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{48C95D39-7AB3-6D4C-83FC-19078DCF9D53}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{48C95D39-7AB3-6D4C-83FC-19078DCF9D53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Citation Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,28 @@
   </si>
   <si>
     <t>Alexandrovsky2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿The Dream is Collapsing: The Experience of Exiting VR</t>
+  </si>
+  <si>
+    <t>我们探索了VR退出的时刻。存在措施</t>
+  </si>
+  <si>
+    <t>环境（例如[34]），退出时刻详细介绍了从VR中的"存在"到物理现实中的"存在"的过渡体验。我们的探索揭示了五次反复出现</t>
+  </si>
+  <si>
+    <t>经验主题：空间、时间、控制、</t>
+  </si>
+  <si>
+    <t>社会性，和感官的考虑。如果我们首先考虑非虚幻体验，则退出体验的规模（例如，空间主题中的迷失方向和混乱）取决于 （a） 玩家在 VR 中的当前状态、（b） VR 中所需的运动和 （c） 在 VR 中花费的时间（参与者评论说， 他们的</t>
+  </si>
+  <si>
+    <t>经验受他们参与VR的长度的约束）</t>
+  </si>
+  <si>
+    <t>虚拟中"存在"的程度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -164,7 +186,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -179,6 +201,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1535B7-C2EC-3A43-961A-73AA1ADF9D3F}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="160" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -591,6 +616,39 @@
         <v>18</v>
       </c>
     </row>
+    <row r="5" spans="1:7" ht="85">
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
